--- a/runs/run831/NotionalETEOutput831.xlsx
+++ b/runs/run831/NotionalETEOutput831.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_226.MISSILE_ANGERMAX0_226</t>
+    <t>MISSILE_BRAVER2_147.MISSILE_BRAVER2_147</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1519.728470576548</v>
+        <v>-1430.312659381435</v>
       </c>
       <c r="J2">
-        <v>1997.915309261777</v>
+        <v>1997.356593300307</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1535.266567899457</v>
+        <v>-1534.367527192201</v>
       </c>
       <c r="J3">
-        <v>1857.339170975984</v>
+        <v>1905.103757947883</v>
       </c>
       <c r="K3">
-        <v>307.1215757140248</v>
+        <v>310.5372300850581</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1461.246948878112</v>
+        <v>-1396.308795225932</v>
       </c>
       <c r="J4">
-        <v>1986.101723846978</v>
+        <v>1926.510350951421</v>
       </c>
       <c r="K4">
-        <v>580.7199451994111</v>
+        <v>589.4097555057745</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1393.997577101931</v>
+        <v>-1442.072655445013</v>
       </c>
       <c r="J5">
-        <v>1884.871677895334</v>
+        <v>1812.116164313482</v>
       </c>
       <c r="K5">
-        <v>895.4283803577632</v>
+        <v>880.5375151994141</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1363.680765403891</v>
+        <v>-1364.571094192423</v>
       </c>
       <c r="J6">
-        <v>1803.485815316573</v>
+        <v>1715.999557957266</v>
       </c>
       <c r="K6">
-        <v>1102.568251040102</v>
+        <v>1090.741753770989</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1394.182487554902</v>
+        <v>-1300.063498825681</v>
       </c>
       <c r="J7">
-        <v>1773.947228075271</v>
+        <v>1687.782487259785</v>
       </c>
       <c r="K7">
-        <v>1329.87406186598</v>
+        <v>1342.444456896701</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1349.129825193871</v>
+        <v>-1313.443324976415</v>
       </c>
       <c r="J8">
-        <v>1758.806333978744</v>
+        <v>1712.377536976695</v>
       </c>
       <c r="K8">
-        <v>1608.558723545558</v>
+        <v>1557.285991509768</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.53985617562884</v>
+        <v>-103.5044807070684</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1307.730056608113</v>
+        <v>-1234.227058122913</v>
       </c>
       <c r="J9">
-        <v>1613.267793909866</v>
+        <v>1611.208452620671</v>
       </c>
       <c r="K9">
-        <v>1849.198000874828</v>
+        <v>1830.68346472031</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>221.0490797088428</v>
+        <v>215.7846098663166</v>
       </c>
       <c r="G10">
-        <v>-85.56883137432507</v>
+        <v>-80.55294897860928</v>
       </c>
       <c r="H10">
-        <v>894.2656089688709</v>
+        <v>867.6796193084346</v>
       </c>
       <c r="I10">
-        <v>-1247.779588554077</v>
+        <v>-1303.017922864554</v>
       </c>
       <c r="J10">
-        <v>1680.372680162177</v>
+        <v>1549.940937649409</v>
       </c>
       <c r="K10">
-        <v>2091.523339382226</v>
+        <v>1914.112655998792</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>173.4082429896657</v>
+        <v>175.9943017188788</v>
       </c>
       <c r="G11">
-        <v>-67.46642852428465</v>
+        <v>-65.31738958773272</v>
       </c>
       <c r="H11">
-        <v>1035.849029843758</v>
+        <v>1097.719739971968</v>
       </c>
       <c r="I11">
-        <v>-1159.031107896816</v>
+        <v>-1227.968927019412</v>
       </c>
       <c r="J11">
-        <v>1505.031727664124</v>
+        <v>1551.456729628796</v>
       </c>
       <c r="K11">
-        <v>2129.196295166101</v>
+        <v>2257.826925736926</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.3486085743042</v>
+        <v>141.8491108159648</v>
       </c>
       <c r="G12">
-        <v>-50.14388426073357</v>
+        <v>-50.78699739408573</v>
       </c>
       <c r="H12">
-        <v>1177.288071658023</v>
+        <v>1203.565628838853</v>
       </c>
       <c r="I12">
-        <v>-1193.744123492158</v>
+        <v>-1177.852836963523</v>
       </c>
       <c r="J12">
-        <v>1573.636572434727</v>
+        <v>1488.727129575949</v>
       </c>
       <c r="K12">
-        <v>2336.264837923492</v>
+        <v>2295.590385745286</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.2381874277186</v>
+        <v>124.5818755319581</v>
       </c>
       <c r="G13">
-        <v>-33.56640829839571</v>
+        <v>-34.23792901082812</v>
       </c>
       <c r="H13">
-        <v>1222.653322746516</v>
+        <v>1276.34153858082</v>
       </c>
       <c r="I13">
-        <v>-1117.524801901967</v>
+        <v>-1182.032831862387</v>
       </c>
       <c r="J13">
-        <v>1535.24335079854</v>
+        <v>1504.835521742624</v>
       </c>
       <c r="K13">
-        <v>2592.322728886803</v>
+        <v>2431.657495704485</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.80615222066</v>
+        <v>104.4174864382929</v>
       </c>
       <c r="G14">
-        <v>-17.75709615683257</v>
+        <v>-17.13328979675448</v>
       </c>
       <c r="H14">
-        <v>1342.114406220692</v>
+        <v>1334.418066727066</v>
       </c>
       <c r="I14">
-        <v>-1086.872565080471</v>
+        <v>-1090.446091569333</v>
       </c>
       <c r="J14">
-        <v>1403.677443571874</v>
+        <v>1403.353359842598</v>
       </c>
       <c r="K14">
-        <v>2692.891659219444</v>
+        <v>2769.521262353693</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.73832260689632</v>
+        <v>99.41511260560394</v>
       </c>
       <c r="G15">
-        <v>-0.9224777347965427</v>
+        <v>-0.9549188350959175</v>
       </c>
       <c r="H15">
-        <v>1350.658063269722</v>
+        <v>1407.223973122149</v>
       </c>
       <c r="I15">
-        <v>-1076.475544743759</v>
+        <v>-1040.283348080963</v>
       </c>
       <c r="J15">
-        <v>1324.424874110563</v>
+        <v>1398.921437210482</v>
       </c>
       <c r="K15">
-        <v>2828.858858441714</v>
+        <v>2768.830710304929</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.67847683158485</v>
+        <v>88.3746814748052</v>
       </c>
       <c r="G16">
-        <v>16.34575233695614</v>
+        <v>15.64940194737534</v>
       </c>
       <c r="H16">
-        <v>1428.563678727269</v>
+        <v>1424.384789183431</v>
       </c>
       <c r="I16">
-        <v>-1038.618052694676</v>
+        <v>-1055.6358109622</v>
       </c>
       <c r="J16">
-        <v>1300.037626276465</v>
+        <v>1312.098934335272</v>
       </c>
       <c r="K16">
-        <v>2758.181390212358</v>
+        <v>2813.217419579605</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.53304026943123</v>
+        <v>86.31881749135871</v>
       </c>
       <c r="G17">
-        <v>32.49559846361877</v>
+        <v>31.74385504631985</v>
       </c>
       <c r="H17">
-        <v>1468.988306922866</v>
+        <v>1395.962262399965</v>
       </c>
       <c r="I17">
-        <v>-950.8555324433929</v>
+        <v>-947.0298976832182</v>
       </c>
       <c r="J17">
-        <v>1314.592705513045</v>
+        <v>1303.741615313064</v>
       </c>
       <c r="K17">
-        <v>2887.155564651067</v>
+        <v>3071.471182980922</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.01280509197206</v>
+        <v>81.7527435836664</v>
       </c>
       <c r="G18">
-        <v>49.16704651040936</v>
+        <v>48.12852548861222</v>
       </c>
       <c r="H18">
-        <v>1443.491303717822</v>
+        <v>1464.78063157955</v>
       </c>
       <c r="I18">
-        <v>-969.979572834239</v>
+        <v>-901.6284801890332</v>
       </c>
       <c r="J18">
-        <v>1193.454467465929</v>
+        <v>1273.206395463906</v>
       </c>
       <c r="K18">
-        <v>3088.151738652896</v>
+        <v>3050.241623125632</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.87894706890981</v>
+        <v>80.95868518009188</v>
       </c>
       <c r="G19">
-        <v>67.08330399389014</v>
+        <v>65.22382534613122</v>
       </c>
       <c r="H19">
-        <v>1531.455885484815</v>
+        <v>1606.538334340427</v>
       </c>
       <c r="I19">
-        <v>-894.881067903885</v>
+        <v>-894.6136428458749</v>
       </c>
       <c r="J19">
-        <v>1152.855481232499</v>
+        <v>1179.327746324527</v>
       </c>
       <c r="K19">
-        <v>3096.231915036451</v>
+        <v>2989.841941079723</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.63163366875185</v>
+        <v>71.47347549792832</v>
       </c>
       <c r="G20">
-        <v>80.72205307992492</v>
+        <v>77.69225233174204</v>
       </c>
       <c r="H20">
-        <v>1533.656550011207</v>
+        <v>1634.019809934356</v>
       </c>
       <c r="I20">
-        <v>-840.3879672276155</v>
+        <v>-834.0760380499106</v>
       </c>
       <c r="J20">
-        <v>1125.320914427035</v>
+        <v>1149.546056781114</v>
       </c>
       <c r="K20">
-        <v>3049.213784192476</v>
+        <v>3021.714076813451</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.02110621262327</v>
+        <v>67.93922096958978</v>
       </c>
       <c r="G21">
-        <v>93.81137846207135</v>
+        <v>102.1400386508274</v>
       </c>
       <c r="H21">
-        <v>1655.155159028509</v>
+        <v>1605.39065635987</v>
       </c>
       <c r="I21">
-        <v>-831.394447817357</v>
+        <v>-831.5691821722015</v>
       </c>
       <c r="J21">
-        <v>1096.773049604946</v>
+        <v>1040.312581390409</v>
       </c>
       <c r="K21">
-        <v>3131.783091351424</v>
+        <v>3194.118509999054</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.77585104444567</v>
+        <v>64.91258512756288</v>
       </c>
       <c r="G22">
-        <v>118.3734932056975</v>
+        <v>112.2328213135012</v>
       </c>
       <c r="H22">
-        <v>1630.102092370062</v>
+        <v>1623.413920487491</v>
       </c>
       <c r="I22">
-        <v>-760.2650993078161</v>
+        <v>-753.944700941426</v>
       </c>
       <c r="J22">
-        <v>1008.898578678044</v>
+        <v>1075.464904180979</v>
       </c>
       <c r="K22">
-        <v>3326.154996965326</v>
+        <v>3072.640437536398</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.73454580672738</v>
+        <v>68.90177102812764</v>
       </c>
       <c r="G23">
-        <v>133.6531105631433</v>
+        <v>135.4634958244086</v>
       </c>
       <c r="H23">
-        <v>1652.072101400157</v>
+        <v>1644.279700693093</v>
       </c>
       <c r="I23">
-        <v>-708.1677345466202</v>
+        <v>-676.3122433825627</v>
       </c>
       <c r="J23">
-        <v>950.6611753049131</v>
+        <v>959.1515606597591</v>
       </c>
       <c r="K23">
-        <v>3134.318447076522</v>
+        <v>3086.257716055331</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.62062870635356</v>
+        <v>65.9314793732505</v>
       </c>
       <c r="G24">
-        <v>143.1745040092881</v>
+        <v>149.9637452764954</v>
       </c>
       <c r="H24">
-        <v>1580.053838210449</v>
+        <v>1667.405048869759</v>
       </c>
       <c r="I24">
-        <v>-640.6503525625105</v>
+        <v>-657.706220278092</v>
       </c>
       <c r="J24">
-        <v>934.0215862642025</v>
+        <v>892.1444439899443</v>
       </c>
       <c r="K24">
-        <v>3031.851703985487</v>
+        <v>3343.071011324429</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.81654523781941</v>
+        <v>63.28038084107385</v>
       </c>
       <c r="G25">
-        <v>167.7319735480596</v>
+        <v>158.2987692338766</v>
       </c>
       <c r="H25">
-        <v>1746.70331386609</v>
+        <v>1738.393101356831</v>
       </c>
       <c r="I25">
-        <v>-617.1196858994214</v>
+        <v>-624.1682328658115</v>
       </c>
       <c r="J25">
-        <v>910.8200015926537</v>
+        <v>851.4514262433645</v>
       </c>
       <c r="K25">
-        <v>3027.637455416538</v>
+        <v>3046.171580208171</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.25522006670895</v>
+        <v>60.551095562802</v>
       </c>
       <c r="G26">
-        <v>174.8792986152175</v>
+        <v>184.6471785461239</v>
       </c>
       <c r="H26">
-        <v>1624.49842217437</v>
+        <v>1771.3240778482</v>
       </c>
       <c r="I26">
-        <v>-573.1932821008676</v>
+        <v>-557.7913024064763</v>
       </c>
       <c r="J26">
-        <v>861.6354276403661</v>
+        <v>830.7813964484003</v>
       </c>
       <c r="K26">
-        <v>3243.775570931752</v>
+        <v>3244.032563064832</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.65444931430837</v>
+        <v>60.70160670254906</v>
       </c>
       <c r="G27">
-        <v>202.7002236462922</v>
+        <v>198.6583530157806</v>
       </c>
       <c r="H27">
-        <v>1764.792144161769</v>
+        <v>1634.356101385948</v>
       </c>
       <c r="I27">
-        <v>-482.4292078119388</v>
+        <v>-505.2490453673826</v>
       </c>
       <c r="J27">
-        <v>803.2440449079071</v>
+        <v>793.6124420008692</v>
       </c>
       <c r="K27">
-        <v>3030.5816398863</v>
+        <v>3040.322856558474</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.64852782772915</v>
+        <v>54.14484020564984</v>
       </c>
       <c r="G28">
-        <v>218.6209224762381</v>
+        <v>217.7600931422086</v>
       </c>
       <c r="H28">
-        <v>1720.432284570851</v>
+        <v>1787.694435703794</v>
       </c>
       <c r="I28">
-        <v>-440.5903706460478</v>
+        <v>-432.3283494544734</v>
       </c>
       <c r="J28">
-        <v>733.4802653047437</v>
+        <v>699.0681299293088</v>
       </c>
       <c r="K28">
-        <v>2957.000328556546</v>
+        <v>2913.561834291675</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.92795219575606</v>
+        <v>52.5767491651813</v>
       </c>
       <c r="G29">
-        <v>232.9611925946607</v>
+        <v>237.9328881689671</v>
       </c>
       <c r="H29">
-        <v>1705.390755086399</v>
+        <v>1714.651827910114</v>
       </c>
       <c r="I29">
-        <v>-368.8177117241924</v>
+        <v>-384.5831847299056</v>
       </c>
       <c r="J29">
-        <v>663.7006081668574</v>
+        <v>666.4887932239467</v>
       </c>
       <c r="K29">
-        <v>2896.291148847795</v>
+        <v>2937.821312263751</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.96845240157445</v>
+        <v>55.24214694499349</v>
       </c>
       <c r="G30">
-        <v>242.8886823259006</v>
+        <v>239.0090692563919</v>
       </c>
       <c r="H30">
-        <v>1711.904901562673</v>
+        <v>1801.664736297</v>
       </c>
       <c r="I30">
-        <v>-311.3774272339084</v>
+        <v>-317.8271715663914</v>
       </c>
       <c r="J30">
-        <v>647.0835125449834</v>
+        <v>654.9419266411975</v>
       </c>
       <c r="K30">
-        <v>2717.557051685342</v>
+        <v>2752.220393693344</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.81194461274188</v>
+        <v>53.674018387019</v>
       </c>
       <c r="G31">
-        <v>252.2024048664842</v>
+        <v>257.4582610996612</v>
       </c>
       <c r="H31">
-        <v>1820.406245457435</v>
+        <v>1827.403715155644</v>
       </c>
       <c r="I31">
-        <v>-269.0660330515398</v>
+        <v>-275.9206595652906</v>
       </c>
       <c r="J31">
-        <v>581.2771698973111</v>
+        <v>612.343733551685</v>
       </c>
       <c r="K31">
-        <v>2640.705762627048</v>
+        <v>2611.789372624969</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>48.88140504795946</v>
+        <v>49.9671249934794</v>
       </c>
       <c r="G32">
-        <v>293.7567726305357</v>
+        <v>289.8857380579182</v>
       </c>
       <c r="H32">
-        <v>1759.340606586625</v>
+        <v>1832.336595643097</v>
       </c>
       <c r="I32">
-        <v>-217.3614847209279</v>
+        <v>-213.4469724457093</v>
       </c>
       <c r="J32">
-        <v>531.2077404944487</v>
+        <v>531.0092793540499</v>
       </c>
       <c r="K32">
-        <v>2443.280540969823</v>
+        <v>2618.078929410966</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.20499250952982</v>
+        <v>52.54606282279622</v>
       </c>
       <c r="G33">
-        <v>283.1793861942414</v>
+        <v>301.4121135277085</v>
       </c>
       <c r="H33">
-        <v>1823.204522534039</v>
+        <v>1769.553449971497</v>
       </c>
       <c r="I33">
-        <v>-149.2973484054969</v>
+        <v>-139.1457596934221</v>
       </c>
       <c r="J33">
-        <v>475.6906781490599</v>
+        <v>493.5057148839692</v>
       </c>
       <c r="K33">
-        <v>2400.460750797515</v>
+        <v>2352.370500020561</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.60054759544863</v>
+        <v>49.04832068997035</v>
       </c>
       <c r="G34">
-        <v>297.8236459996742</v>
+        <v>304.4132143064213</v>
       </c>
       <c r="H34">
-        <v>1755.113985560774</v>
+        <v>1817.106712866542</v>
       </c>
       <c r="I34">
-        <v>-86.26638727522129</v>
+        <v>-80.5259761255911</v>
       </c>
       <c r="J34">
-        <v>422.9253023567754</v>
+        <v>439.4267563871621</v>
       </c>
       <c r="K34">
-        <v>2124.992827461547</v>
+        <v>2151.328083043616</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.69585444962873</v>
+        <v>47.26757948277608</v>
       </c>
       <c r="G35">
-        <v>314.3815626207137</v>
+        <v>326.0163224504221</v>
       </c>
       <c r="H35">
-        <v>1909.046847049353</v>
+        <v>1845.664956312522</v>
       </c>
       <c r="I35">
-        <v>-18.67619334916285</v>
+        <v>-19.40887931757326</v>
       </c>
       <c r="J35">
-        <v>400.9374188191157</v>
+        <v>393.8779016063096</v>
       </c>
       <c r="K35">
-        <v>1960.461702836201</v>
+        <v>2051.717811523029</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.10616944976002</v>
+        <v>45.69160563000278</v>
       </c>
       <c r="G36">
-        <v>362.0367836131843</v>
+        <v>357.767954085576</v>
       </c>
       <c r="H36">
-        <v>1868.05374896378</v>
+        <v>1836.159097167757</v>
       </c>
       <c r="I36">
-        <v>49.32742350345289</v>
+        <v>47.35936472721605</v>
       </c>
       <c r="J36">
-        <v>360.3369101004339</v>
+        <v>350.9487806435117</v>
       </c>
       <c r="K36">
-        <v>1897.329130809367</v>
+        <v>1862.683429199615</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.29803519111975</v>
+        <v>45.29619735122893</v>
       </c>
       <c r="G37">
-        <v>352.238219103311</v>
+        <v>348.4768174810814</v>
       </c>
       <c r="H37">
-        <v>1852.491915532401</v>
+        <v>1903.721494937267</v>
       </c>
       <c r="I37">
-        <v>110.2232562387848</v>
+        <v>114.982612766288</v>
       </c>
       <c r="J37">
-        <v>291.1876160465062</v>
+        <v>293.289922032093</v>
       </c>
       <c r="K37">
-        <v>1606.29846930519</v>
+        <v>1562.523946270105</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.67779151008436</v>
+        <v>45.29519496466953</v>
       </c>
       <c r="G38">
-        <v>367.2479391124318</v>
+        <v>387.4256420106097</v>
       </c>
       <c r="H38">
-        <v>1877.12913655199</v>
+        <v>1891.198735062701</v>
       </c>
       <c r="I38">
-        <v>188.2366262759788</v>
+        <v>179.2261927961411</v>
       </c>
       <c r="J38">
-        <v>250.3323626526228</v>
+        <v>247.2036797077063</v>
       </c>
       <c r="K38">
-        <v>1347.402848394797</v>
+        <v>1421.390160553331</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.55377708433616</v>
+        <v>43.33962172394489</v>
       </c>
       <c r="G39">
-        <v>412.0712616936683</v>
+        <v>380.6819590138673</v>
       </c>
       <c r="H39">
-        <v>1934.453101621579</v>
+        <v>1925.351210721609</v>
       </c>
       <c r="I39">
-        <v>259.9530871477155</v>
+        <v>257.2659289187131</v>
       </c>
       <c r="J39">
-        <v>190.1658174275096</v>
+        <v>203.3904620688187</v>
       </c>
       <c r="K39">
-        <v>1177.84543739628</v>
+        <v>1163.107725626492</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.6711459042923</v>
+        <v>43.19647436335494</v>
       </c>
       <c r="G40">
-        <v>432.0674384086251</v>
+        <v>393.7211995931049</v>
       </c>
       <c r="H40">
-        <v>1899.471134925398</v>
+        <v>1894.968452347189</v>
       </c>
       <c r="I40">
-        <v>333.6894952761174</v>
+        <v>312.8683306825877</v>
       </c>
       <c r="J40">
-        <v>145.1928343829979</v>
+        <v>153.5252562694327</v>
       </c>
       <c r="K40">
-        <v>860.4394116803772</v>
+        <v>921.7441377444422</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.51961993836557</v>
+        <v>42.17207234505685</v>
       </c>
       <c r="G41">
-        <v>415.8560951198638</v>
+        <v>447.8304445562588</v>
       </c>
       <c r="H41">
-        <v>1862.149522474484</v>
+        <v>1973.93271371229</v>
       </c>
       <c r="I41">
-        <v>419.865561796418</v>
+        <v>405.4518352196324</v>
       </c>
       <c r="J41">
-        <v>98.56737210341795</v>
+        <v>97.96864414783079</v>
       </c>
       <c r="K41">
-        <v>643.564950237328</v>
+        <v>653.2412567936102</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.3360705365941</v>
+        <v>41.88246928177536</v>
       </c>
       <c r="G42">
-        <v>431.6528474288029</v>
+        <v>455.8721059738324</v>
       </c>
       <c r="H42">
-        <v>1934.721998384873</v>
+        <v>1827.379265624592</v>
       </c>
       <c r="I42">
-        <v>499.5997235853519</v>
+        <v>459.7018586619785</v>
       </c>
       <c r="J42">
-        <v>54.22607959105594</v>
+        <v>52.5462306251446</v>
       </c>
       <c r="K42">
-        <v>340.9313833985817</v>
+        <v>347.1123151569109</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.62912340079865</v>
+        <v>44.27660246767081</v>
       </c>
       <c r="G43">
-        <v>466.5593067846504</v>
+        <v>457.6119950438661</v>
       </c>
       <c r="H43">
-        <v>1896.601213509371</v>
+        <v>1922.294094882997</v>
       </c>
       <c r="I43">
-        <v>554.6819401373464</v>
+        <v>534.1358234039764</v>
       </c>
       <c r="J43">
-        <v>5.391480777618619</v>
+        <v>5.424738338035682</v>
       </c>
       <c r="K43">
-        <v>32.95128342220475</v>
+        <v>33.3272503044241</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.01210292732909</v>
+        <v>40.71621414398692</v>
       </c>
       <c r="G44">
-        <v>461.769272642383</v>
+        <v>474.5666188154837</v>
       </c>
       <c r="H44">
-        <v>1818.161485516743</v>
+        <v>1881.608815933025</v>
       </c>
       <c r="I44">
-        <v>632.150299655901</v>
+        <v>623.4533007015484</v>
       </c>
       <c r="J44">
-        <v>-44.18966743995161</v>
+        <v>-41.67985332284055</v>
       </c>
       <c r="K44">
-        <v>-272.8289574617461</v>
+        <v>-289.2885534749221</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.93378630653149</v>
+        <v>42.03512404462338</v>
       </c>
       <c r="G45">
-        <v>515.9614363922938</v>
+        <v>479.9844559495227</v>
       </c>
       <c r="H45">
-        <v>1996.97433067262</v>
+        <v>1902.897468889183</v>
       </c>
       <c r="I45">
-        <v>713.2479847637391</v>
+        <v>715.3698191985713</v>
       </c>
       <c r="J45">
-        <v>-89.88319044563417</v>
+        <v>-91.91583103003973</v>
       </c>
       <c r="K45">
-        <v>-592.9103955928171</v>
+        <v>-609.3018545412007</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.22354857987177</v>
+        <v>41.95862521799191</v>
       </c>
       <c r="G46">
-        <v>510.4333805735448</v>
+        <v>509.6663818561339</v>
       </c>
       <c r="H46">
-        <v>1866.394351274879</v>
+        <v>1937.39674486149</v>
       </c>
       <c r="I46">
-        <v>767.9655740372073</v>
+        <v>768.4623390615877</v>
       </c>
       <c r="J46">
-        <v>-144.9343278617677</v>
+        <v>-137.562989326278</v>
       </c>
       <c r="K46">
-        <v>-915.7930200393606</v>
+        <v>-968.526030439876</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.18893346722921</v>
+        <v>40.01768041070547</v>
       </c>
       <c r="G47">
-        <v>550.4181214354069</v>
+        <v>540.0668965040541</v>
       </c>
       <c r="H47">
-        <v>1879.391472974027</v>
+        <v>1861.238622128493</v>
       </c>
       <c r="I47">
-        <v>846.7174244933465</v>
+        <v>855.3708551141954</v>
       </c>
       <c r="J47">
-        <v>-184.2630243653946</v>
+        <v>-186.5315242885882</v>
       </c>
       <c r="K47">
-        <v>-1386.250441326228</v>
+        <v>-1264.484082242186</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.05204986218116</v>
+        <v>41.14335551376259</v>
       </c>
       <c r="G48">
-        <v>538.1994736234203</v>
+        <v>569.0677093835802</v>
       </c>
       <c r="H48">
-        <v>1997.191969220713</v>
+        <v>1993.667840078257</v>
       </c>
       <c r="I48">
-        <v>937.3197338264848</v>
+        <v>1000.134008132937</v>
       </c>
       <c r="J48">
-        <v>-248.1056851115594</v>
+        <v>-232.5927601455348</v>
       </c>
       <c r="K48">
-        <v>-1709.006236683198</v>
+        <v>-1769.61265429522</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.3822835324354</v>
+        <v>38.85280811358322</v>
       </c>
       <c r="G49">
-        <v>561.370179050592</v>
+        <v>584.6831421606248</v>
       </c>
       <c r="H49">
-        <v>2001.370931592489</v>
+        <v>1867.806986839259</v>
       </c>
       <c r="I49">
-        <v>1058.133030532014</v>
+        <v>1026.40612601958</v>
       </c>
       <c r="J49">
-        <v>-282.9975572818616</v>
+        <v>-279.7520691783433</v>
       </c>
       <c r="K49">
-        <v>-2014.614851309614</v>
+        <v>-2195.874549355136</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.26072554556728</v>
+        <v>39.64331687695663</v>
       </c>
       <c r="G50">
-        <v>566.4767463113481</v>
+        <v>575.0651964655468</v>
       </c>
       <c r="H50">
-        <v>2030.856516672859</v>
+        <v>2013.068392523407</v>
       </c>
       <c r="I50">
-        <v>1184.729961614858</v>
+        <v>1185.208196358064</v>
       </c>
       <c r="J50">
-        <v>-318.8704582000059</v>
+        <v>-343.6211508979872</v>
       </c>
       <c r="K50">
-        <v>-2424.258566454142</v>
+        <v>-2405.077627084663</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.22260161933146</v>
+        <v>37.72015397324936</v>
       </c>
       <c r="G51">
-        <v>565.8912534016964</v>
+        <v>612.6118083240815</v>
       </c>
       <c r="H51">
-        <v>2012.526702851149</v>
+        <v>2055.73270312044</v>
       </c>
       <c r="I51">
-        <v>1224.350865813477</v>
+        <v>1269.035702694431</v>
       </c>
       <c r="J51">
-        <v>-393.7280795281192</v>
+        <v>-398.5551148746764</v>
       </c>
       <c r="K51">
-        <v>-2824.144656627424</v>
+        <v>-2964.681166612682</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.81847314179843</v>
+        <v>36.76602020559591</v>
       </c>
       <c r="G52">
-        <v>592.5363564158131</v>
+        <v>612.272139457341</v>
       </c>
       <c r="H52">
-        <v>1904.732924567033</v>
+        <v>2031.708132446173</v>
       </c>
       <c r="I52">
-        <v>1326.133161284799</v>
+        <v>1393.081421210118</v>
       </c>
       <c r="J52">
-        <v>-423.091484878042</v>
+        <v>-415.4111298292906</v>
       </c>
       <c r="K52">
-        <v>-3410.857300684291</v>
+        <v>-3213.777804223394</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.41543682907439</v>
+        <v>35.45188867904695</v>
       </c>
       <c r="G53">
-        <v>640.4903303093142</v>
+        <v>595.941919657611</v>
       </c>
       <c r="H53">
-        <v>1996.12686634279</v>
+        <v>2034.696162724845</v>
       </c>
       <c r="I53">
-        <v>1418.557361336339</v>
+        <v>1469.04282318607</v>
       </c>
       <c r="J53">
-        <v>-489.631842787025</v>
+        <v>-478.5834834811289</v>
       </c>
       <c r="K53">
-        <v>-4006.679740575613</v>
+        <v>-3822.726811003753</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.71984750797217</v>
+        <v>34.96679072525957</v>
       </c>
       <c r="G54">
-        <v>615.5789151229635</v>
+        <v>670.216737443799</v>
       </c>
       <c r="H54">
-        <v>2014.01632130048</v>
+        <v>1884.612217106781</v>
       </c>
       <c r="I54">
-        <v>1593.425966292627</v>
+        <v>1523.747462924709</v>
       </c>
       <c r="J54">
-        <v>-535.5943005545126</v>
+        <v>-539.1805702871643</v>
       </c>
       <c r="K54">
-        <v>-4400.357332495526</v>
+        <v>-4103.005137083738</v>
       </c>
     </row>
   </sheetData>
